--- a/ConsoleApp1/ConsoleApp1/bin/Debug/net6.0/inputn.xlsx
+++ b/ConsoleApp1/ConsoleApp1/bin/Debug/net6.0/inputn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VLI MOX\ConsoleApp1\ConsoleApp1\bin\Debug\net6.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D42F390-8418-43E4-A1A1-2A16B37594A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAB32B1-8F93-4354-ABA6-F2A3C12AF73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2445" windowWidth="15420" windowHeight="11295" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,34 @@
   </si>
   <si>
     <t>기간병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fgdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>werew</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,8 +453,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -485,8 +513,8 @@
       <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="I2" s="1">
-        <v>1</v>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -514,8 +542,8 @@
       <c r="H3" s="1">
         <v>4</v>
       </c>
-      <c r="I3" s="1">
-        <v>2</v>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -543,8 +571,8 @@
       <c r="H4" s="1">
         <v>6</v>
       </c>
-      <c r="I4" s="1">
-        <v>3</v>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -572,8 +600,8 @@
       <c r="H5" s="1">
         <v>8</v>
       </c>
-      <c r="I5" s="1">
-        <v>4</v>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -587,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426180A-214C-423E-9A31-44BE2EE9D3EC}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -647,8 +675,8 @@
       <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="I2" s="1">
-        <v>1</v>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -676,8 +704,8 @@
       <c r="H3" s="1">
         <v>4</v>
       </c>
-      <c r="I3" s="1">
-        <v>2</v>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -705,12 +733,13 @@
       <c r="H4" s="1">
         <v>6</v>
       </c>
-      <c r="I4" s="1">
-        <v>3</v>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ConsoleApp1/ConsoleApp1/bin/Debug/net6.0/inputn.xlsx
+++ b/ConsoleApp1/ConsoleApp1/bin/Debug/net6.0/inputn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VLI MOX\ConsoleApp1\ConsoleApp1\bin\Debug\net6.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAB32B1-8F93-4354-ABA6-F2A3C12AF73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA692BC3-52E4-43B4-A597-47C20E435652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1665" windowWidth="21600" windowHeight="11295" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무기종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>무장수준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분대지원장비(전투)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>l</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,18 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>창</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,31 +83,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fgdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>werew</t>
+    <t>as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>egw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식칼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이플 소총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(스코프)부착물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅏ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,10 +439,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -470,36 +458,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E2">
         <v>500</v>
@@ -508,27 +494,25 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>120</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E3">
         <v>500</v>
@@ -537,27 +521,25 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E4">
         <v>600</v>
@@ -566,43 +548,147 @@
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1">
         <v>6</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>250</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E5">
         <v>700</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1">
         <v>8</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -613,15 +699,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426180A-214C-423E-9A31-44BE2EE9D3EC}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,109 +721,227 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D2">
-        <v>150</v>
-      </c>
-      <c r="E2">
-        <v>590</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>170</v>
-      </c>
-      <c r="E3">
-        <v>550</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="1">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>260</v>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>670</v>
+        <v>600</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1">
         <v>6</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>700</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ConsoleApp1/ConsoleApp1/bin/Debug/net6.0/inputn.xlsx
+++ b/ConsoleApp1/ConsoleApp1/bin/Debug/net6.0/inputn.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VLI MOX\ConsoleApp1\ConsoleApp1\bin\Debug\net6.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA692BC3-52E4-43B4-A597-47C20E435652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C671858D-9DE2-44C4-8B54-7F0A1BB41E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1665" windowWidth="21600" windowHeight="11295" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atks" sheetId="1" r:id="rId1"/>
     <sheet name="defs" sheetId="2" r:id="rId2"/>
+    <sheet name="DB" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신병</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,24 +96,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>권총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식칼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이플 소총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(스코프)부착물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅏ</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식칼</t>
+  </si>
+  <si>
+    <t>창</t>
+  </si>
+  <si>
+    <t>야구배트</t>
+  </si>
+  <si>
+    <t>권총</t>
+  </si>
+  <si>
+    <t>리볼버</t>
+  </si>
+  <si>
+    <t>자동권총</t>
+  </si>
+  <si>
+    <t>산탄총</t>
+  </si>
+  <si>
+    <t>볼트액션 소총</t>
+  </si>
+  <si>
+    <t>민수용 반자동소총</t>
+  </si>
+  <si>
+    <t>기관단총</t>
+  </si>
+  <si>
+    <t>자동소총</t>
+  </si>
+  <si>
+    <t>지정사수소총</t>
   </si>
 </sst>
 </file>
@@ -439,15 +460,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -474,7 +495,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -482,26 +503,26 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E2">
         <v>500</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -509,26 +530,26 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>500</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1">
         <v>4</v>
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -536,26 +557,26 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>600</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1">
         <v>6</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -563,146 +584,481 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>700</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1">
         <v>8</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>300</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>200</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>500</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C142" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0FDF40A5-2A8C-4773-AAB2-DDD79778B079}">
+          <x14:formula1>
+            <xm:f>DB!$A$1:$A$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C142</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426180A-214C-423E-9A31-44BE2EE9D3EC}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="A1:H9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -721,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -744,19 +1100,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E2">
         <v>500</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -770,19 +1126,19 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>500</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1">
         <v>4</v>
@@ -796,19 +1152,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>600</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1">
         <v>6</v>
@@ -822,19 +1178,19 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>700</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1">
         <v>8</v>
@@ -845,22 +1201,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1">
         <v>2</v>
@@ -871,22 +1227,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E7">
         <v>300</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
@@ -897,22 +1253,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E8">
         <v>200</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1">
         <v>2</v>
@@ -923,25 +1279,984 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>500</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C214" s="1"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C215" s="1"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C216" s="1"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C217" s="1"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C218" s="1"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C219" s="1"/>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C221" s="1"/>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C222" s="1"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C223" s="1"/>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C224" s="1"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C225" s="1"/>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C226" s="1"/>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C227" s="1"/>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C228" s="1"/>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C229" s="1"/>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C230" s="1"/>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C233" s="1"/>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C234" s="1"/>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C235" s="1"/>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C236" s="1"/>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C237" s="1"/>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C238" s="1"/>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C239" s="1"/>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C240" s="1"/>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C241" s="1"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C242" s="1"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C243" s="1"/>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C244" s="1"/>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C245" s="1"/>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C246" s="1"/>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C247" s="1"/>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C248" s="1"/>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C249" s="1"/>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C250" s="1"/>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C251" s="1"/>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C252" s="1"/>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C253" s="1"/>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C254" s="1"/>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C255" s="1"/>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C256" s="1"/>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C257" s="1"/>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C258" s="1"/>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C259" s="1"/>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C260" s="1"/>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C261" s="1"/>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C262" s="1"/>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C263" s="1"/>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C264" s="1"/>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C265" s="1"/>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C266" s="1"/>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C267" s="1"/>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C268" s="1"/>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C269" s="1"/>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C270" s="1"/>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C271" s="1"/>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C272" s="1"/>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C273" s="1"/>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C274" s="1"/>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C275" s="1"/>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C276" s="1"/>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C277" s="1"/>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C278" s="1"/>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C279" s="1"/>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C280" s="1"/>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C281" s="1"/>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C282" s="1"/>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C283" s="1"/>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C284" s="1"/>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C285" s="1"/>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C286" s="1"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C287" s="1"/>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C288" s="1"/>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C289" s="1"/>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C290" s="1"/>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C291" s="1"/>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C292" s="1"/>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C293" s="1"/>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C294" s="1"/>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C295" s="1"/>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C296" s="1"/>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C297" s="1"/>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C298" s="1"/>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C299" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E158023-1DD7-4F81-A138-3F3480027900}">
+          <x14:formula1>
+            <xm:f>DB!$A$1:$A$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C299</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7313F5D2-B0AC-470D-B8FC-CFD9B435CED3}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ConsoleApp1/ConsoleApp1/bin/Debug/net6.0/inputn.xlsx
+++ b/ConsoleApp1/ConsoleApp1/bin/Debug/net6.0/inputn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VLI MOX\ConsoleApp1\ConsoleApp1\bin\Debug\net6.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C671858D-9DE2-44C4-8B54-7F0A1BB41E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866F0AD1-D86F-427B-B4BF-B36F2A8ABDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:H299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1106,7 +1106,7 @@
         <v>19</v>
       </c>
       <c r="E2">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>19</v>
       </c>
       <c r="E5">
-        <v>700</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/ConsoleApp1/ConsoleApp1/bin/Debug/net6.0/inputn.xlsx
+++ b/ConsoleApp1/ConsoleApp1/bin/Debug/net6.0/inputn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VLI MOX\ConsoleApp1\ConsoleApp1\bin\Debug\net6.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866F0AD1-D86F-427B-B4BF-B36F2A8ABDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D58C19-8284-4159-849F-580FA3BCE7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atks" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,26 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전문가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기간병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>as</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>r</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,13 +118,37 @@
   </si>
   <si>
     <t>지정사수소총</t>
+  </si>
+  <si>
+    <t>NIJ IV</t>
+  </si>
+  <si>
+    <t>NIJ II</t>
+  </si>
+  <si>
+    <t>NIJ IIIA</t>
+  </si>
+  <si>
+    <t>NIJ III</t>
+  </si>
+  <si>
+    <t>신병</t>
+  </si>
+  <si>
+    <t>기간병</t>
+  </si>
+  <si>
+    <t>전문가</t>
+  </si>
+  <si>
+    <t>정예병</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -160,6 +164,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="굴림"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -184,9 +195,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -460,10 +472,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J142"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -479,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -503,19 +515,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>500</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -530,19 +539,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>500</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1">
         <v>4</v>
@@ -557,19 +563,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>600</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H4" s="1">
         <v>6</v>
@@ -577,30 +580,11 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>700</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1">
-        <v>8</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -636,403 +620,539 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
+      <c r="G13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C106" s="1"/>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C107" s="1"/>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C108" s="1"/>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C112" s="1"/>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C114" s="1"/>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C115" s="1"/>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C120" s="1"/>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C122" s="1"/>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C123" s="1"/>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C124" s="1"/>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C125" s="1"/>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C126" s="1"/>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C127" s="1"/>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C128" s="1"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C130" s="1"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C131" s="1"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C132" s="1"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C133" s="1"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C134" s="1"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C140" s="1"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C142" s="1"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G143" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1040,12 +1160,24 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0FDF40A5-2A8C-4773-AAB2-DDD79778B079}">
           <x14:formula1>
             <xm:f>DB!$A$1:$A$12</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C142</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7EE8D71-4E7A-452B-AAB5-8BE7334C9EF6}">
+          <x14:formula1>
+            <xm:f>DB!$B$1:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F144</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{791F6EFA-2738-4802-AC93-1C039DDE03F0}">
+          <x14:formula1>
+            <xm:f>DB!$C$1:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G143</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1055,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426180A-214C-423E-9A31-44BE2EE9D3EC}">
-  <dimension ref="A1:H299"/>
+  <dimension ref="A1:H294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1077,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1097,22 +1229,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -1123,25 +1252,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1149,752 +1275,837 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1">
-        <v>8</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>300</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>200</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>500</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C106" s="1"/>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C107" s="1"/>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C108" s="1"/>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C112" s="1"/>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C114" s="1"/>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C115" s="1"/>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C120" s="1"/>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C122" s="1"/>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C123" s="1"/>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C124" s="1"/>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C125" s="1"/>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C126" s="1"/>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C127" s="1"/>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C128" s="1"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C130" s="1"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C131" s="1"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C132" s="1"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C133" s="1"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C134" s="1"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C140" s="1"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C142" s="1"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C151" s="1"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C152" s="1"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C153" s="1"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C154" s="1"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C155" s="1"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C156" s="1"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C157" s="1"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C158" s="1"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C159" s="1"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C160" s="1"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C161" s="1"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C162" s="1"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C163" s="1"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C164" s="1"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C165" s="1"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C166" s="1"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C167" s="1"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C168" s="1"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C169" s="1"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C170" s="1"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C171" s="1"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C172" s="1"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C173" s="1"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C174" s="1"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C175" s="1"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C176" s="1"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C177" s="1"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C178" s="1"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C179" s="1"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C180" s="1"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G180" s="1"/>
+    </row>
+    <row r="181" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C181" s="1"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C182" s="1"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C183" s="1"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C184" s="1"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C185" s="1"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C186" s="1"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C187" s="1"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C188" s="1"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C189" s="1"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C190" s="1"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C191" s="1"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C192" s="1"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C193" s="1"/>
-    </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C194" s="1"/>
-    </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G194" s="1"/>
+    </row>
+    <row r="195" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C195" s="1"/>
-    </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G195" s="1"/>
+    </row>
+    <row r="196" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C196" s="1"/>
-    </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C197" s="1"/>
-    </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C198" s="1"/>
-    </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C199" s="1"/>
-    </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C200" s="1"/>
-    </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C201" s="1"/>
-    </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C202" s="1"/>
-    </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C203" s="1"/>
-    </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C204" s="1"/>
-    </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C205" s="1"/>
-    </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G205" s="1"/>
+    </row>
+    <row r="206" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C206" s="1"/>
-    </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G206" s="1"/>
+    </row>
+    <row r="207" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C207" s="1"/>
-    </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G207" s="1"/>
+    </row>
+    <row r="208" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C208" s="1"/>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.3">
@@ -2154,21 +2365,6 @@
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C294" s="1"/>
-    </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C295" s="1"/>
-    </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C296" s="1"/>
-    </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C297" s="1"/>
-    </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C298" s="1"/>
-    </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C299" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2176,12 +2372,24 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E158023-1DD7-4F81-A138-3F3480027900}">
           <x14:formula1>
             <xm:f>DB!$A$1:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C299</xm:sqref>
+          <xm:sqref>C2:C294</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0CA8EFFC-D813-436D-A230-DC53F9501803}">
+          <x14:formula1>
+            <xm:f>DB!$B$1:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F153</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54667607-ADD6-4649-B7E7-1D726CEA3C0E}">
+          <x14:formula1>
+            <xm:f>DB!$C$1:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G207</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2191,72 +2399,96 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7313F5D2-B0AC-470D-B8FC-CFD9B435CED3}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
